--- a/xlsx/季风_intext.xlsx
+++ b/xlsx/季风_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>季风</t>
   </si>
@@ -29,19 +29,19 @@
     <t>自然</t>
   </si>
   <si>
-    <t>政策_政策_美國_季风</t>
+    <t>政策_政策_美国_季风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>天氣</t>
+    <t>天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>季節</t>
+    <t>季节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A7%E7%8B%80%E9%9B%B2</t>
   </si>
   <si>
-    <t>弧狀雲</t>
+    <t>弧状云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>下擊暴流</t>
+    <t>下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>微下擊暴流</t>
+    <t>微下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>熱暴流</t>
+    <t>热暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%B0%98%E6%9A%B4</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E9%A2%A8</t>
   </si>
   <si>
-    <t>烈風</t>
+    <t>烈风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E5%8F%AF%E9%A3%8E</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD%E6%9A%B4%E9%A2%A8</t>
   </si>
   <si>
-    <t>火災暴風</t>
+    <t>火灾暴风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E7%94%B5</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E7%83%88%E9%9B%B7%E9%9B%A8</t>
   </si>
   <si>
-    <t>劇烈雷雨</t>
+    <t>剧烈雷雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%89%93%E9%9B%AA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E6%97%8B</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>熱帶氣旋</t>
+    <t>热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>溫帶氣旋</t>
+    <t>温带气旋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_windstorm</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8</t>
   </si>
   <si>
-    <t>颱風</t>
+    <t>台风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Derecho</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%B5%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>塵捲風</t>
+    <t>尘捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%BE%8D%E6%8D%B2</t>
   </si>
   <si>
-    <t>火龍捲</t>
+    <t>火龙捲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>海龍捲風</t>
+    <t>海龙捲风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Winter_storm</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%A4%BE%E9%9B%AA</t>
   </si>
   <si>
-    <t>雨夾雪</t>
+    <t>雨夹雪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Snow_grains</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%B2%B3%E6%B5%81</t>
   </si>
   <si>
-    <t>大氣河流</t>
+    <t>大气河流</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atmospheric_convection</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%BD%AE</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E6%B0%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>高速氣流</t>
+    <t>高速气流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -479,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>Template talk-天氣</t>
+    <t>Template talk-天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8</t>
   </si>
   <si>
-    <t>風</t>
+    <t>风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9B%E8%A1%8C%E9%A3%8E</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
+    <t>几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿拉伯半島</t>
+    <t>阿拉伯半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%92%99%C2%B7%E5%93%88%E9%9B%B7</t>
   </si>
   <si>
-    <t>愛德蒙·哈雷</t>
+    <t>爱德蒙·哈雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%86%B1%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>比熱容量</t>
+    <t>比热容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%A3%93</t>
   </si>
   <si>
-    <t>氣壓</t>
+    <t>气压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>中南半島</t>
+    <t>中南半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93</t>
   </si>
   <si>
-    <t>副熱帶高壓</t>
+    <t>副热带高压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C</t>
   </si>
   <si>
-    <t>索馬里</t>
+    <t>索马里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E8%97%8F%E9%AB%98%E5%8E%9F</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%B5%81</t>
   </si>
   <si>
-    <t>對流</t>
+    <t>对流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E7%9B%B4%E9%A2%A8%E5%88%87%E8%AE%8A</t>
   </si>
   <si>
-    <t>垂直風切變</t>
+    <t>垂直风切变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
@@ -695,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>菲律賓群島</t>
+    <t>菲律宾群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -725,15 +725,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%A3%93</t>
   </si>
   <si>
-    <t>低壓</t>
+    <t>低压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
   </si>
   <si>
-    <t>东亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E9%A3%8E%E6%A7%BD</t>
   </si>
   <si>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B3%E5%9F%8E</t>
   </si>
   <si>
-    <t>檳城</t>
+    <t>槟城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E6%B0%94%E5%80%99</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>西伯利亞</t>
+    <t>西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E9%A2%A8%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>季風亞洲</t>
+    <t>季风亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BA%E5%BA%A6_(%E5%A4%A9%E6%B0%A3)</t>
   </si>
   <si>
-    <t>尺度 (天氣)</t>
+    <t>尺度 (天气)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0%E4%B8%9C%E9%A3%8E%E5%B8%A6</t>
@@ -797,31 +794,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%A2%A8</t>
   </si>
   <si>
-    <t>信風</t>
+    <t>信风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A2%A8%E5%B8%B6</t>
   </si>
   <si>
-    <t>西風帶</t>
+    <t>西风带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%A2%A8%E7%B3%BB</t>
   </si>
   <si>
-    <t>行星風系</t>
+    <t>行星风系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E8%BC%BB%E5%90%88%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶輻合帶</t>
+    <t>热带辐合带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A2%A8%E6%A7%BD</t>
   </si>
   <si>
-    <t>西風槽</t>
+    <t>西风槽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0%E6%B6%A1%E6%97%8B</t>
@@ -839,81 +836,78 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%8F%8D%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>赤道反氣旋</t>
+    <t>赤道反气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88%E4%BD%8E%E5%A3%93</t>
   </si>
   <si>
-    <t>炸彈低壓</t>
+    <t>炸弹低压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%8D%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>科納風暴</t>
+    <t>科纳风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%AE%8A%E7%B7%9A</t>
   </si>
   <si>
-    <t>切變線</t>
+    <t>切变线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%82%A3%E4%BA%9E%E4%BD%8E%E6%B0%A3%E5%A3%93</t>
   </si>
   <si>
-    <t>熱那亞低氣壓</t>
+    <t>热那亚低气压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E5%9C%A8%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>潛在熱帶氣旋</t>
+    <t>潜在热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%BD%8E%E5%A3%93</t>
   </si>
   <si>
-    <t>熱帶低壓</t>
+    <t>热带低压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>後熱帶氣旋</t>
+    <t>后热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>副熱帶氣旋</t>
+    <t>副热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>寒帶氣旋</t>
+    <t>寒带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E4%BD%8E%E5%A3%93</t>
   </si>
   <si>
-    <t>極地低壓</t>
+    <t>极地低压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E9%A2%A8</t>
   </si>
   <si>
-    <t>季風</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%A3%8E%E6%B3%A2</t>
   </si>
   <si>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%92_(%E6%B0%A3%E8%B1%A1)</t>
   </si>
   <si>
-    <t>鋒 (氣象)</t>
+    <t>锋 (气象)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E6%B8%A9%E5%B1%82</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4822,7 +4816,7 @@
         <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4848,10 +4842,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4877,10 +4871,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4906,10 +4900,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4935,10 +4929,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4964,10 +4958,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4993,10 +4987,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5022,10 +5016,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5051,10 +5045,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5080,10 +5074,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5138,10 +5132,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5167,10 +5161,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5196,10 +5190,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5225,10 +5219,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5254,10 +5248,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136" t="s">
         <v>255</v>
-      </c>
-      <c r="F136" t="s">
-        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5283,10 +5277,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5312,10 +5306,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5341,10 +5335,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5370,10 +5364,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5399,10 +5393,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5428,10 +5422,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5457,10 +5451,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5486,10 +5480,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" t="s">
         <v>255</v>
-      </c>
-      <c r="F144" t="s">
-        <v>256</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5515,10 +5509,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5544,10 +5538,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5573,10 +5567,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5602,10 +5596,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5631,10 +5625,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5660,10 +5654,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5689,10 +5683,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5718,10 +5712,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5747,10 +5741,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5776,10 +5770,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>40</v>
@@ -5805,10 +5799,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5834,10 +5828,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>254</v>
+      </c>
+      <c r="F156" t="s">
         <v>255</v>
-      </c>
-      <c r="F156" t="s">
-        <v>256</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5892,10 +5886,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5921,10 +5915,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5950,10 +5944,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5979,10 +5973,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6008,10 +6002,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6037,10 +6031,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6066,10 +6060,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6095,10 +6089,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6124,10 +6118,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
